--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmart\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D3DE41-0B0A-41C5-A608-A69A923E5247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6426431-FF59-4240-BE03-A6D71747BBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="17760" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="60" windowWidth="17385" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE" sheetId="1" r:id="rId1"/>
@@ -241,19 +241,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,14 +604,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
@@ -633,14 +641,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
@@ -710,6 +718,7 @@
       <c r="G8" s="12"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="DNqZoCmyEo9LTvSyinxhxoBR1pztFMhhc8J6pB7mTK9pK0hFvEs6uAjcGhjY0iiQdxlNr4ZjSuFDuVfBJ0XJ1g==" saltValue="kYY4e463C/3Z/92bcz0x6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0"/>
   <mergeCells count="6">
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A5:G5"/>
@@ -719,7 +728,7 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:G1 A5:G8 A3:F3" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmart\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6426431-FF59-4240-BE03-A6D71747BBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287268B3-E86E-4F44-B2C1-5B0EB85262EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="60" windowWidth="17385" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE" sheetId="1" r:id="rId1"/>
+    <sheet name="FormatTemplateSheet" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">FormatTemplateSheet!$A$1:$G$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">INVOICE!$A$1:$G$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>CODE</t>
   </si>
@@ -79,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +122,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -209,11 +218,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -222,25 +228,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -248,7 +239,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -262,6 +253,34 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,123 +621,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="43.625" customWidth="1"/>
+    <col min="3" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="5">
         <f>SUM(F2:F2)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DNqZoCmyEo9LTvSyinxhxoBR1pztFMhhc8J6pB7mTK9pK0hFvEs6uAjcGhjY0iiQdxlNr4ZjSuFDuVfBJ0XJ1g==" saltValue="kYY4e463C/3Z/92bcz0x6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0"/>
+  <sheetProtection insertRows="0"/>
   <mergeCells count="6">
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A5:G5"/>
@@ -730,7 +746,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 A5:G8 A3:F3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 A5:G6 A3:F3 A8:G8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5215F6D-26E0-4653-9758-3B25994064DB}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="5">
+        <f>SUM(F2:F2)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+  </sheetData>
+  <sheetProtection insertRows="0"/>
+  <mergeCells count="6">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -5,21 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmart\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmart\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287268B3-E86E-4F44-B2C1-5B0EB85262EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78844468-89DA-4DB4-B6B2-621CF8A339B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE" sheetId="1" r:id="rId1"/>
-    <sheet name="FormatTemplateSheet" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">FormatTemplateSheet!$A$1:$G$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INVOICE!$A$1:$G$8</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>CODE</t>
   </si>
@@ -81,9 +76,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,66 +86,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -158,130 +103,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,265 +451,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="43.625" customWidth="1"/>
-    <col min="3" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="5">
-        <f>SUM(F2:F2)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-  </sheetData>
-  <sheetProtection insertRows="0"/>
-  <mergeCells count="6">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:G1 A5:G6 A3:F3 A8:G8" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5215F6D-26E0-4653-9758-3B25994064DB}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="5">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2">
         <f>SUM(F2:F2)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0"/>
-  <mergeCells count="6">
-    <mergeCell ref="A8:G8"/>
+  <mergeCells count="5">
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:G1 A3:G8" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -5,16 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmart\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmart\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78844468-89DA-4DB4-B6B2-621CF8A339B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B1549-F06F-4149-8F30-541239694024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INVOICE!$A$1:$G$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -76,9 +79,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,16 +89,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -103,15 +149,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,117 +592,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="5">
         <f>SUM(F2:F2)</f>
         <v>0</v>
       </c>
+      <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 A3:G8" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 A5:G8 A3:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmart\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B1549-F06F-4149-8F30-541239694024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0382F2-0333-495C-BAC4-E0C720E3BC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -178,12 +178,34 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -195,7 +217,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -209,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -219,7 +241,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -237,8 +259,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,6 +270,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +622,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,13 +668,13 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="5">
         <f>SUM(F2:F2)</f>
         <v>0</v>
@@ -653,60 +682,61 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
@@ -716,7 +746,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 A5:G8 A3:F3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 A5:G8 A3 F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -5,20 +5,21 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmart\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmart\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0382F2-0333-495C-BAC4-E0C720E3BC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{014D3240-FE84-4D1C-8C57-B885C01CAD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INVOICE!$A$1:$G$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INVOICE!$A$1:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>CODE</t>
   </si>
@@ -57,6 +58,15 @@
   </si>
   <si>
     <t>ItemBarCode</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>ONION</t>
+  </si>
+  <si>
+    <t>99000101000000</t>
   </si>
   <si>
     <t>GRAND TOTAL:</t>
@@ -79,9 +89,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,59 +99,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -149,136 +116,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,134 +469,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
+    <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="5">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>95.238</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5">
         <f>SUM(F2:F2)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 A5:G8 A3 F3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G3 A6:G9 A4 F4:G4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmart\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{014D3240-FE84-4D1C-8C57-B885C01CAD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C539A003-B06A-4F21-B077-5E0E0330F7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INVOICE!$A$1:$G$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INVOICE!$A$1:$G$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>CODE</t>
   </si>
@@ -58,15 +57,6 @@
   </si>
   <si>
     <t>ItemBarCode</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>ONION</t>
-  </si>
-  <si>
-    <t>99000101000000</t>
   </si>
   <si>
     <t>GRAND TOTAL:</t>
@@ -89,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -120,16 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,55 +487,46 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2">
+        <f>SUM(F2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>95.238</v>
-      </c>
-      <c r="E2" s="1">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5">
-        <f>SUM(F2:F2)</f>
-        <v>100</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -558,9 +535,9 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -569,9 +546,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -580,29 +557,16 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
+    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G3 A6:G9 A4 F4:G4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 A5:G8 A3 F3:G3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>